--- a/ContactosApellido.xlsx
+++ b/ContactosApellido.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santy\OneDrive\Documents\Evaluación Banco Pichincha\UiPathRPASantiagoRodriguez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santy\OneDrive\Documents\Evaluación Banco Pichincha\UIPath_RPA_SantiagoRodriguez\UIPath_RPA_SantiagoRodriguez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BC549-35B1-4D17-9ABE-732157BEC911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E54656-E54E-4B1E-8BBF-788E5806E989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="17250" windowHeight="8130" xr2:uid="{261290FF-6C61-447B-9072-9BC1942A3073}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="405">
   <si>
     <t>Número Telefónico</t>
   </si>
@@ -51,33 +51,9 @@
     <t>Número Reservado</t>
   </si>
   <si>
-    <t>VALLE HERMOSO</t>
-  </si>
-  <si>
-    <t>TUMBACO</t>
-  </si>
-  <si>
-    <t>SELVA ALEGRE PICHINCHA</t>
-  </si>
-  <si>
-    <t>SANGOLQUI</t>
-  </si>
-  <si>
-    <t>SAN RAFAEL</t>
-  </si>
-  <si>
-    <t>SAN ANTONIO DE PICHINCHA</t>
-  </si>
-  <si>
     <t>QUITO</t>
   </si>
   <si>
-    <t>ALEX PATRICIO RODRIGUEZ REYES</t>
-  </si>
-  <si>
-    <t>CARANGO CONJUNTO LOS ALAMOS CALLE EL VERGEL CASA 3 Y ALVARO PEREZ</t>
-  </si>
-  <si>
     <t>POMASQUI</t>
   </si>
   <si>
@@ -102,447 +78,21 @@
     <t>ALLURIQUIN</t>
   </si>
   <si>
-    <t>BLANCA JUVENCIA HUACA REYES</t>
-  </si>
-  <si>
-    <t>RUTA FLOR DEL VALLE 0 Y RUTA VALLE HERMOSO por el destacamento policial por el destacamento policial RUTA VALLE HERMOSO</t>
-  </si>
-  <si>
-    <t>CAMACHO REYES HERNAN EUGENIO</t>
-  </si>
-  <si>
-    <t>VALLE HERMOSO 0 ROSARIO CASA 56 COTOPAXI ROSARIO-CASA 56-COTOPAXI-.</t>
-  </si>
-  <si>
-    <t>ACOSTA REYES VICENTE GUSTAVO</t>
-  </si>
-  <si>
-    <t>TUMBACO SECTOR CHURULOMA CALLE EL AGUACATE LOTE 500</t>
-  </si>
-  <si>
-    <t>AGUINAGA REYES SANDRA CATHERINE</t>
-  </si>
-  <si>
-    <t>CALLE 1 0 L Y CALLE 3 VICENTE ALVAREZ 0Y Y GENERAL GALO PLAZA CERCA LA IGLESIA DEL BUEN PASTOR LA CASA ES UN MURO DE</t>
-  </si>
-  <si>
-    <t>AYALA REYES NELSON IVAN ALBERTO</t>
-  </si>
-  <si>
-    <t>TUMBACO URBANIZACION HACIENDA SANTA ROSA LOTE N/9 CALLE NORBERTO SALAZAR N/2275</t>
-  </si>
-  <si>
-    <t>BLANCA MERCEDES VELEZ REYES</t>
-  </si>
-  <si>
-    <t>AV. UNIVERSITARIA 326 Y PIO JARAMILLO LLAMAR ANTES DE LA INSTALACION</t>
-  </si>
-  <si>
-    <t>ARMANDO JOSE MARIA REYES NAVARRETE</t>
-  </si>
-  <si>
-    <t>ANTONIO CHECA 0 Y Y FRANCISCO GUARDERAS CASA 130 CASA 130 FRANCISCO GUARDERAS</t>
-  </si>
-  <si>
-    <t>AUGUSTO DANIEL REYES CADENA</t>
-  </si>
-  <si>
-    <t>CALLE PRINCIPAL 0Y Y CALLE 3 CASA 132 COPEDAC CASA-132 COPEDAC</t>
-  </si>
-  <si>
-    <t>ALCIVAR REYES EDENIA GALUZ</t>
-  </si>
-  <si>
-    <t>URBANIZACION CASHAPAMBA PASAJE 6 109 Y URBANIZACION CASHAPAMBA PASAJE B URB-CASHAPAMBA CJTO HABITACIONAL CASHAPAMBA</t>
-  </si>
-  <si>
-    <t>ANDRES GABRIEL PAZMI�O REYES</t>
-  </si>
-  <si>
-    <t>LIMONCOCHA 1 Y HUAMCABAMBA SAN VICENTE</t>
-  </si>
-  <si>
-    <t>ALVAREZ REYES RAUL FERNANDO</t>
-  </si>
-  <si>
-    <t>LOS PINOS 0 URB LAS RETAMAS CASA 1 SCT CAPELO</t>
-  </si>
-  <si>
-    <t>ARBOLEDA REYES MONICA EUGENIA</t>
-  </si>
-  <si>
-    <t>CRUZ DEL SUR 69 Y GALAXIAS URB DEL RIO, CASA 4 URB DEL RIO, CASA 4</t>
-  </si>
-  <si>
-    <t>ARGOTI REYES WILSON OLIVO EBERALDO</t>
-  </si>
-  <si>
-    <t>LOS CISNES 333 N Y LOS ALBATROS</t>
-  </si>
-  <si>
-    <t>VIA ILALO 0 Y VIA A GUANGOLOPO 10 DE AGOSTO EL TINGO 10 DE AGOSTO EL TINGO</t>
-  </si>
-  <si>
     <t>BONILLA REYES LUIS FERNANDO</t>
   </si>
   <si>
-    <t>AVENIDA ILALO 0 Y LAS ALONDRAS CONJUNTO PIAZZA NOVA PB CASA 14 SECTOR ILALO CJTO PIAZZA-NOVA-PB CASA 14-SECT ILALO AVENIDA ILALO</t>
-  </si>
-  <si>
-    <t>BONILLA REYES LUCIA CRISTINA</t>
-  </si>
-  <si>
-    <t>DE LOS HEMISFERIOS 35 Y SANTA ANA DE LOS HEMISFERIOS</t>
-  </si>
-  <si>
-    <t>CARLOS JACOB REYES CABRERA</t>
-  </si>
-  <si>
-    <t>PEDRO CABEZAS N7- 49Y Y DE LOS HUIRACHUROS</t>
-  </si>
-  <si>
-    <t>ROCAFUERTE (ESMERALDAS)</t>
-  </si>
-  <si>
-    <t>SALVADOR 206 Y PEREIRA SALVADOR</t>
-  </si>
-  <si>
-    <t>ACOSTA REYES YOLANDA GENOVEVA</t>
-  </si>
-  <si>
-    <t>CTLL SAN PEDRO CLAVER BL 6 DEPARTAMENTO 5A MANZANA 6 CALLE SIMON CARDENAS 813 Y RAFAEL PORTILLA</t>
-  </si>
-  <si>
-    <t>ACURIO REYES WILLIAN RAUL</t>
-  </si>
-  <si>
-    <t>AVENIDA AMAZONAS 0 Y JORGE WASHINGTON CENTRO COMERCIAL ES�RAL LOCAL 47 CENTRO COMERCIAL-ES�RAL LOCAL 47 AVENIDA AMAZONAS</t>
-  </si>
-  <si>
-    <t>ADRIANA DE LOS ANGELES REYES COBA</t>
-  </si>
-  <si>
-    <t>FDC CN LLUZ URBANIZACION ORQUIDEAS DEL NORTE LOTE 33 CALLE AMAGASI DEL INCA</t>
-  </si>
-  <si>
-    <t>BARRIONUEVO ANTONIO S9 523 Y MARTIN GIL ----- BARRIONUEVO ANTONIO S9</t>
-  </si>
-  <si>
-    <t>VF CALLE ANTONIO BARRIONUEVO 270 Y ROQUE DIAZ VF CALLE ANTONIO BARRIONUEVO</t>
-  </si>
-  <si>
-    <t>ADRIANA DEL CARMEN BUITRON REYES</t>
-  </si>
-  <si>
-    <t>PASAJE OE2G S9- 36 Y CA�ARIS ----- SECTOR LA MAGDALENA</t>
-  </si>
-  <si>
-    <t>AGAMI REYES CECILIA ISABEL</t>
-  </si>
-  <si>
-    <t>EDIFICIO ELOY ALFARO CALLE ALEMANIA 309</t>
-  </si>
-  <si>
-    <t>INIAQUITO ALEMANIA 309 Y ELOY ALFARO INIAQUITO ALEMANIA</t>
-  </si>
-  <si>
-    <t>CALLE ALEMANIA 309 Y AVENIDA ELOY ALFARO CALLE ALEMANIA</t>
-  </si>
-  <si>
-    <t>AGUILAR REYES GLORIA CRISTINA</t>
-  </si>
-  <si>
-    <t>AV RODRIGO DE CHAVEZ 0L Y ALBERTO ENRIQUEZ CONDOMINIO PATRI A PUENTES DEP: 3C BLOQUE: 15 CONDOMINIO PATRI A PUENTES DEP: 3C BLOQUE: 15</t>
-  </si>
-  <si>
-    <t>AGUILAR REYES JORGE HERNAN</t>
-  </si>
-  <si>
-    <t>MELCHOR DE VALDEZ 107 Y MARTIN OCHOA</t>
-  </si>
-  <si>
-    <t>AGUIRRE REYES MARIA EUGENIA</t>
-  </si>
-  <si>
-    <t>CARAPUNGO PASAJE 1 10 N 11</t>
-  </si>
-  <si>
-    <t>AIDA GRACIELA LOPEZ REYES</t>
-  </si>
-  <si>
-    <t>MSC EDIFICIO BENITO JUAREZ DEPARTAMENTO 16 PB CALLE MEXICO 461 Y BOGOTA</t>
-  </si>
-  <si>
-    <t>AIDA PIEDAD CUAYCAL REYES</t>
-  </si>
-  <si>
-    <t>ATAUROS 0 Y GRANADA AV NAPO Y PEDRO PINTO ( CONDOMINIO LULUNCOTO BLOQUE RUMI�AHUI BLOQUE B DEP 402) MINIO LULUNCOTO BLOQUE RUMI�AHUI BLOQUE B DEP 402)</t>
-  </si>
-  <si>
-    <t>ALEJANDRO ISAAC ESTRELLA REYES</t>
-  </si>
-  <si>
-    <t>PASAJE 1 543 N Y CHILE SECTOR LA TOLA</t>
-  </si>
-  <si>
-    <t>ALEXIS DAVID REYES CARTAGENA</t>
-  </si>
-  <si>
-    <t>VARGAS N11 51 Y GALAPAGOS</t>
-  </si>
-  <si>
-    <t>ALFONSO GABRIEL DE LOS REYES GARCES</t>
-  </si>
-  <si>
-    <t>MELCHOR DE VALDEZ 0 Y MARTIN OCHOA MARTIN OCHOA</t>
-  </si>
-  <si>
-    <t>ALICIA REYES AILLON</t>
-  </si>
-  <si>
-    <t>LLUZ URBANIZACION EL EDEN CALLE DE LAS VINAS E 13 301 LOTE 136</t>
-  </si>
-  <si>
-    <t>FERROVIARIA BAJA HOPPE NORTON 146 P1</t>
-  </si>
-  <si>
-    <t>ALMEIDA REYES ELVIA AZALIA</t>
-  </si>
-  <si>
-    <t>GUAYASAMIN OSWALDO 211 Y ACACIAS BARRIO LOS ALAMOS PUENTE 4 BRR LOS ALAMOS-PUENTE 4 GUAYASAMIN OSWALDO</t>
-  </si>
-  <si>
-    <t>CALLE OE8 66 Y LAS ACACIAS ---------------- DE STO DOMINGO -----------------DE STO DOMINGO</t>
-  </si>
-  <si>
-    <t>ALMEIDA REYES ERICK RICARDO</t>
-  </si>
-  <si>
-    <t>RITA LECUMBERRY E9 158 Y JOSE PALOMINO LA TOLA</t>
-  </si>
-  <si>
-    <t>ALMEIDA REYES FABIOLA ALBA EULALIA</t>
-  </si>
-  <si>
-    <t>MANUEL RENDON 0Y Y CALLE N10- CONOCOTO</t>
-  </si>
-  <si>
-    <t>ALMEIDA REYES GALO FABIAN</t>
-  </si>
-  <si>
-    <t>PASAJE SAN GABRIEL 0 CASA OE3-148 AV AMERICA CASA OE3-148-AV AMERICA</t>
-  </si>
-  <si>
-    <t>ALMEIDA REYES JOSE MIGUEL</t>
-  </si>
-  <si>
-    <t>GENERAL ENRIQUEZ 0 JOSE MENDOZA EDF 5 PISO 3 DEPT 3C SECTOR LOS DOS PUENTES JOSE MENDOZA EDF 5 PISO 3 DEPT 3C SECTOR LOS DOS PUENTES</t>
-  </si>
-  <si>
-    <t>ALMEIDA REYES MARIA LEONILA</t>
-  </si>
-  <si>
-    <t>ULLOA 1084 Y MARIANA DE JESUS ULLOA</t>
-  </si>
-  <si>
-    <t>ALMEIDA REYES TARQUINO ABDON</t>
-  </si>
-  <si>
-    <t>AVENIDA JIPIJAPA 189 CIUDAD ATAHUALPA</t>
-  </si>
-  <si>
-    <t>ALVAREZ REYES FLAVIO MEDARDO</t>
-  </si>
-  <si>
-    <t>CALLE RAFAEL CUERVO 153 Q NORTE</t>
-  </si>
-  <si>
-    <t>ALVAREZ REYES GALO ESTENIO</t>
-  </si>
-  <si>
-    <t>PLAN SOLANDA SECTOR UNO SUPMZ 3 MANZANA U CASA 23</t>
-  </si>
-  <si>
-    <t>ALVARO FRANCISCO YEPEZ REYES</t>
-  </si>
-  <si>
-    <t>MA�OSCA 0 Y AVENIDA MARISCAL ANTONIO JOSE DE SUCRE AVENIDA MARISCAL ANTONIO JOSE DE SUCRE</t>
-  </si>
-  <si>
-    <t>AMORES REYES BOLIVAR</t>
-  </si>
-  <si>
-    <t>NICOLAS DE LA PE�A S14 230 Y THOMAS GUERRA URBANIZACION INTERNACIONAL URB-INTERNACIONAL NICOLAS DE LA PE�A S14</t>
-  </si>
-  <si>
     <t>ANA CRISTINA REYES MERINO</t>
   </si>
   <si>
-    <t>VF CIUDADELA ATAHUALPA CALLE ALONSO DE ANGULO 1540 Y GALO MOLINA</t>
-  </si>
-  <si>
-    <t>ANA CRISTINA VARGAS REYES</t>
-  </si>
-  <si>
-    <t>CALLE E6 75173 Y CAPRI CJTO HOREB</t>
-  </si>
-  <si>
-    <t>ANA GABRIELA PUMA REYES</t>
-  </si>
-  <si>
-    <t>AV. QUITUMBE �AN 83Y Y CALLE OE3 CONJ RADOS DE QUITUBE CASA 83</t>
-  </si>
-  <si>
-    <t>ANA GABRIELA SALAZAR REYES</t>
-  </si>
-  <si>
-    <t>CALLE F 32Y Y CALLE D BARRIO PRIMAVERA DE CORNEJO RNEJO</t>
-  </si>
-  <si>
-    <t>ANA LUCIA REYES REYES</t>
-  </si>
-  <si>
-    <t>TERESA DE CEPEDA 785 E IGNACIO SANTA MARIA P1</t>
-  </si>
-  <si>
-    <t>ANA MARIA REYES MENA</t>
-  </si>
-  <si>
-    <t>NU�EZ DE VELA E3 0 Y Y BORJA LAVAYEN N35 BORJA LAVAYEN N35</t>
-  </si>
-  <si>
     <t>ANA VICTORIA ESTRELLA REYES</t>
   </si>
   <si>
-    <t>AVENIDA AMAZONAS N35 135 Y COREA EDIFICIO AMAZONAS SUBSUELO 1 EDIF AMAZONAS-SUBSUELO 1 AVENIDA AMAZONAS N35</t>
-  </si>
-  <si>
-    <t>A�AZCO REYES MARIORI CELENE</t>
-  </si>
-  <si>
-    <t>AVENIDA MARISCAL SUCRE N75- 143 CONJUNTO FONTANA DEL SOL CASA 10 CJTO FONTANA DEL-SOL CASA 10</t>
-  </si>
-  <si>
-    <t>ANCHATIPAN REYES DAYSI NATHALI</t>
-  </si>
-  <si>
-    <t>CATARAMA 76C Y ZUMBAGUA CASALES METROPOLI BLOQUE NEW YORK DTO 108 CATARAMA</t>
-  </si>
-  <si>
-    <t>ANDINO REYES LUZ OFELIA</t>
-  </si>
-  <si>
-    <t>CIUDADELA GATAZO CALLE PLAYAS 263 Y ACHUPALLAS</t>
-  </si>
-  <si>
-    <t>ANDRADE REYES ELVA FABIOLA</t>
-  </si>
-  <si>
-    <t>CALLE CARLOS MAGNO ANDRADE 172 Y EL LIBERTADOR</t>
-  </si>
-  <si>
-    <t>ANDRADE REYES HOLGER GEOMAR</t>
-  </si>
-  <si>
-    <t>EMILIO USCATEGUI 406 Y CALLE OE6A CASA PORTON METALICO CASA PORTON-METALICO EMILIO USCATEGUI</t>
-  </si>
-  <si>
-    <t>ANDRADE REYES MONICA ALICIA</t>
-  </si>
-  <si>
-    <t>PINTADO 0 PASAJE WILMA ANDRADE Y AVENIDA ENRIQUE GARCES LOTE 6 PSJE. WILMA-ANDRADE Y AV.-ENRIQUE GARCES-LOTE 6</t>
-  </si>
-  <si>
-    <t>ANDRADE REYES NURIA MARIA SOLEDAD</t>
-  </si>
-  <si>
-    <t>NU�EZ DE VELA N37- 131 Y AVENIDA VILLALENGUA EDIFICIO DROW PLAZA PISO 4 DEPARTAMENTO 404 EDF-DROW PLAZA-PISO-4-DEPT-404 NU�EZ DE VELA N37-</t>
-  </si>
-  <si>
-    <t>ANDREA CAROLINA REYES CEVALLOS</t>
-  </si>
-  <si>
-    <t>AV SIMON BOLIVAR 0 Y AV TURUBAMBA CASA B66 SECT GUAMANI</t>
-  </si>
-  <si>
-    <t>ANNABELLE DEL ROSARIO FRIAS REYES</t>
-  </si>
-  <si>
-    <t>CALLE OE 2C LOTE 63 Y TADEO BENITEZ</t>
-  </si>
-  <si>
-    <t>NAZACOTA PUENTO OE4 206 Y AVENIDA DIEGO DE VASQUEZ NAZACOTA PUENTO OE4</t>
-  </si>
-  <si>
-    <t>EJE DEL COLECTOR 626 DIEGO DE VAZQUEZ DIEGO DE-VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ANZIETA REYES ERNESTO MIGUEL</t>
-  </si>
-  <si>
-    <t>LA FLORESTA CALLE RAFAEL LEON LARREA 170 Y CORUNIA CASA LA FLORESTA CALLE RAFAEL LEON LARREA</t>
-  </si>
-  <si>
-    <t>WILSON 0 Y AV 12 DE OCTUBRE EDF ABRIGGO PLAZA PISO 6 DEPT 601 EDF-ABRIGGO PLAZA-PISO-6-DEPT-601 EL GIRON</t>
-  </si>
-  <si>
-    <t>APARCANA REYES MANUEL LEONARD</t>
-  </si>
-  <si>
-    <t>FRANCISCO LAVAYEN N4 138 Y CONCEPCION FRANCISCO LAVAYEN N4</t>
-  </si>
-  <si>
-    <t>FRANCISCO LAVAYEN N4 138 Y CONCEPCION CASA 2 PISOS CASA-2 PISOS FRANCISCO LAVAYEN N4</t>
-  </si>
-  <si>
-    <t>APARICIO REYES LUCY IVONNE</t>
-  </si>
-  <si>
-    <t>CALLE E18C S2- 86 Y CARLOS POLIT JARDINES DEL VALLE CALLE E18C S2-</t>
-  </si>
-  <si>
-    <t>ARANHA REYES ESTHER PATRICIA</t>
-  </si>
-  <si>
-    <t>DE LOS GUAYACANES 52230N Y DE LAS ORQUIDEAS COLINAS DE AMAGASI</t>
-  </si>
-  <si>
-    <t>ARBOLEDA REYES LUCIA FABIOLA</t>
-  </si>
-  <si>
-    <t>PONCIANO ALTO AVENIDA REAL AUDIENCIA N73/108</t>
-  </si>
-  <si>
     <t>ARBOLEDA REYES MARTHA ALICIA</t>
   </si>
   <si>
-    <t>PROPUESTA 2L Y FRANCISCO DE LA PITA CONJUNTO TIERRA ALTA PISO 10 B102 CONJ. TIERRA-ALTA-PISO 10-B102 PROPUESTA</t>
-  </si>
-  <si>
-    <t>ARCOS REYES ALEXANDRA AMARILIS</t>
-  </si>
-  <si>
-    <t>OLMEDO 831 Y OVIEDO OLMEDO</t>
-  </si>
-  <si>
-    <t>ARCOS REYES LILIA EUGENIA</t>
-  </si>
-  <si>
-    <t>CALLE E3E 280 Y CALLE S57G CALLE E3E</t>
-  </si>
-  <si>
-    <t>ARDILA REYES CELSO LEONIDAS</t>
-  </si>
-  <si>
-    <t>URBANIZACION IESS FUT 0 Y CALLE Q LOTE S1542 LT-S1542 MZ 15 Y PASAJE 1</t>
-  </si>
-  <si>
     <t>ARDILA REYES MARIA DOLORES</t>
   </si>
   <si>
-    <t>MORASPUNGO S11- 663 Y AVENIDA TEODORO GOMEZ DE LA TORRE ----- MORASPUNGO S11-</t>
-  </si>
-  <si>
     <t>COOPERATIVA 6 DE AGOSTO 0 Y PASAJE B SPLT 2 LOTE 2 Y MORASPUNGO SPLT 2 LT 2 Y-MORASPUNGO</t>
   </si>
   <si>
@@ -1198,6 +748,507 @@
   </si>
   <si>
     <t>SANTO DOMINGO 9442 RCTO SARAPULLO ALTO Y VIA A SARAPULLO BAJO RCTO. SARAPULLO ALTO Y VIA A SARAPULLO BAJO</t>
+  </si>
+  <si>
+    <t>MIRIAN SUSI RAMOS ALVARADO</t>
+  </si>
+  <si>
+    <t>CDLA NICARAGUA 0 Y CDLA SANTA RITA</t>
+  </si>
+  <si>
+    <t>VINCES</t>
+  </si>
+  <si>
+    <t>RAMOS GONZALES MARIA</t>
+  </si>
+  <si>
+    <t>MEXICO 0 Y AV. PIO JARAMILLO ALVARADO</t>
+  </si>
+  <si>
+    <t>RAMOS MACIAS HOLANDA MARILU</t>
+  </si>
+  <si>
+    <t>AVENIDA CORDOVA Y CUENCA</t>
+  </si>
+  <si>
+    <t>RAMOS TOMASA VELASQUEZ RAMOS</t>
+  </si>
+  <si>
+    <t>AV. AQUILES CARRIEL 0 Y BOLIVAR ENTRE CORDOVA</t>
+  </si>
+  <si>
+    <t>VALVERDE RAMOS GREGORIA CATALINA</t>
+  </si>
+  <si>
+    <t>BALZAR 2 Y CALLEJON PALMARIN</t>
+  </si>
+  <si>
+    <t>ROSADO RAMOS JULIO AMADO</t>
+  </si>
+  <si>
+    <t>GUSTAVO RUIZ OCHOA 0 Y Y 6 DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>VENTANAS</t>
+  </si>
+  <si>
+    <t>MENDOZA RAMOS DOLORES SESARINA</t>
+  </si>
+  <si>
+    <t>PARROQUIA LA UNION 0 Y Y CALLE AMABLE MORENO ATR�S DEL PARQUE CASA COLOR AMARILLO ATR�S DEL PARQUE CASA COLOR AMARILLO CALLE AMABLE MORENO</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VERA RAMOS GILMA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>CALLE LOS RIOS 0 Y GENERAL ENRIQUEZ</t>
+  </si>
+  <si>
+    <t>VERA RAMOS LUGARDO MELITON</t>
+  </si>
+  <si>
+    <t>BARRIO LAS MERCEDES 0</t>
+  </si>
+  <si>
+    <t>ACOSTA RAMOS MIRYAM ELIZABETH</t>
+  </si>
+  <si>
+    <t>SAN CAMILO 0Y Y CALLE COLOMBIA</t>
+  </si>
+  <si>
+    <t>SAN CAMILO</t>
+  </si>
+  <si>
+    <t>JOFFRE ESTUARDO RAMOS BURGOS</t>
+  </si>
+  <si>
+    <t>SECTOR EL RECREO 0 Y CALLE PRINCIPAL</t>
+  </si>
+  <si>
+    <t>LUZ BELGICA RAMOS LUNA</t>
+  </si>
+  <si>
+    <t>JOSE MEJIA 0 Y PANAMA PANAMA</t>
+  </si>
+  <si>
+    <t>RAMOS MAYORGA DOLORES MARIA</t>
+  </si>
+  <si>
+    <t>ESTADOS UNIDOS 0Y Y FRANCISCO MEJIA</t>
+  </si>
+  <si>
+    <t>RAMOS MEDINA NARCISA JOBA</t>
+  </si>
+  <si>
+    <t>CALLE HNO VICENTE</t>
+  </si>
+  <si>
+    <t>QUINZALOMA</t>
+  </si>
+  <si>
+    <t>ALBI�O RAMOS EDGAR DAVID</t>
+  </si>
+  <si>
+    <t>CIUDADELA GUAYACAN 8 Y CALLE PRINCIPAL CASA GRIS CASA-GRIS ..</t>
+  </si>
+  <si>
+    <t>QUEVEDO</t>
+  </si>
+  <si>
+    <t>ARIAS RAMOS AIDA EPIFANIA</t>
+  </si>
+  <si>
+    <t>CALLE DECIMA TERCERA 0Y Y CALLE 12 DE OCTUBRE CASA AMARILLA AMARILLA</t>
+  </si>
+  <si>
+    <t>FLORES RAMOS JULIO CESAR</t>
+  </si>
+  <si>
+    <t>CALLE D 0 Y CALLE PRIMERA CASA FRENTE A UN GABINETE CASA-FRENTE A UN GABINETE</t>
+  </si>
+  <si>
+    <t>GOMEZ RAMOS PAOLA MARIUXI</t>
+  </si>
+  <si>
+    <t>LOTIZACION LAS PALMAS MZ11 S03 VIA VALENCIA</t>
+  </si>
+  <si>
+    <t>GUEVARA RAMOS JOSE VICENTE</t>
+  </si>
+  <si>
+    <t>CIUDADELA SAN JOSEVIGESIMA 303 Y EOCAFUERTE</t>
+  </si>
+  <si>
+    <t>GUEVARA RAMOS RITA MARIA</t>
+  </si>
+  <si>
+    <t>CIUDADELA EL GUAYACAN MANZANA A10 V26</t>
+  </si>
+  <si>
+    <t>LOURDES ROCIO RAMOS MACKLIFF</t>
+  </si>
+  <si>
+    <t>DECIMA 0 Y CALLE L1 CALLE L1</t>
+  </si>
+  <si>
+    <t>LUIS HUMBERTO RAMOS REYES</t>
+  </si>
+  <si>
+    <t>SECTOR EL DESQUITE 0 Y Y CALLE CUARENTA CALLE CUARENTA</t>
+  </si>
+  <si>
+    <t>MORALES RAMOS EDDIE ENRIQUE</t>
+  </si>
+  <si>
+    <t>COOPERATIVA 20 DE FEBRERO 0Y Y JULIO AROSEMENA</t>
+  </si>
+  <si>
+    <t>PAREDES RAMOS VIVIANA VANESSA</t>
+  </si>
+  <si>
+    <t>AVENIDA 11 DE JULIO B ATASCOSO</t>
+  </si>
+  <si>
+    <t>RAMOS CHILIQUINGA ROSA MARLENE</t>
+  </si>
+  <si>
+    <t>PRRW. VIVA ALFARO 0 Y - CALLE PRINCIPAL</t>
+  </si>
+  <si>
+    <t>RAMOS ELIECER WASHINGTON</t>
+  </si>
+  <si>
+    <t>JUAN MONTALVO 505 Y MEXICO</t>
+  </si>
+  <si>
+    <t>DANILO EDGAR RAMOS MURRIETA</t>
+  </si>
+  <si>
+    <t>CALLE PRINCIPAL 0 PUEBLO NUEVO SUR BARRIO SAN JOSE CALLE 3 PUEBLO NUEVO SUR BARRIO SAN JOSE CALLE 3</t>
+  </si>
+  <si>
+    <t>PUEBLO NUEVO</t>
+  </si>
+  <si>
+    <t>BRAVO RAMOS WILLIANS ROBERTO</t>
+  </si>
+  <si>
+    <t>CALLE MAYAICU Y MOCACHE</t>
+  </si>
+  <si>
+    <t>PALENQUE</t>
+  </si>
+  <si>
+    <t>BRIONES RAMOS LUIS MIGUEL</t>
+  </si>
+  <si>
+    <t>CALLE MACHINAZA E CALLE LA ROCHA Y ACARIAS</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO RAMOS MARCOS ORLANDO</t>
+  </si>
+  <si>
+    <t>VELASCO IBARRA 0 Y 6 DE OCTUBRE VELASCO IBARRA</t>
+  </si>
+  <si>
+    <t>MONTALVO LOS RIOS</t>
+  </si>
+  <si>
+    <t>ESPINOZA RAMOS LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>CIUDADELA BUENA FE NORTE 0 Y RUMI�AHUI</t>
+  </si>
+  <si>
+    <t>RAMOS MIRANDA NANCY INES</t>
+  </si>
+  <si>
+    <t>10 DE AGOSTO Y ELOY ALFARO</t>
+  </si>
+  <si>
+    <t>ZOILA JULIETA RAMOS QUISHPE</t>
+  </si>
+  <si>
+    <t>EUGENIO ESPEJO 0 Y BABAHOYO EUGENIO ESPEJO</t>
+  </si>
+  <si>
+    <t>MIRANDA RAMOS TANIA MARITZA</t>
+  </si>
+  <si>
+    <t>HACIENDA GUADALUPE</t>
+  </si>
+  <si>
+    <t>LA UNION LOS RIOS</t>
+  </si>
+  <si>
+    <t>RAMOS GAVIDIA PERFECTO FROILAN</t>
+  </si>
+  <si>
+    <t>RECINTO LA ESMERALDA 0 Y CALLE PRINCIPAL RECINTO LA ESMERALDA</t>
+  </si>
+  <si>
+    <t>LA ESMERALDA</t>
+  </si>
+  <si>
+    <t>RAMOS GRANJA ALONSO SABINO</t>
+  </si>
+  <si>
+    <t>CALLE PRINCIPAL</t>
+  </si>
+  <si>
+    <t>RAMOS GRANJA ELMITA CARMEN</t>
+  </si>
+  <si>
+    <t>BARRIO ANGELITA FRANCO 0 Y ENTRADA POZA DEL MUERTO VIA CALUMA</t>
+  </si>
+  <si>
+    <t>DANIEL JOFFRE RAMOS SANCHEZ</t>
+  </si>
+  <si>
+    <t>TERCER CALLEJON 0Y Y PRINCIPAL</t>
+  </si>
+  <si>
+    <t>JUJAN</t>
+  </si>
+  <si>
+    <t>ZAMBRANO RAMOS RAUL TOMAS</t>
+  </si>
+  <si>
+    <t>CALLE PRINCIPAL 0</t>
+  </si>
+  <si>
+    <t>FEBRES CORDERO</t>
+  </si>
+  <si>
+    <t>ARIEL BISMAR SUAREZ RAMOS</t>
+  </si>
+  <si>
+    <t>CALLE SEGUNDA 0 Y CIUDADELA LOS ALMENDROS</t>
+  </si>
+  <si>
+    <t>BABAHOYO</t>
+  </si>
+  <si>
+    <t>BERTHA BEATRIZ MEJIA RAMOS</t>
+  </si>
+  <si>
+    <t>1ER CALLEJON EP CARBO Y 27 MA</t>
+  </si>
+  <si>
+    <t>BRANGNE BEATRIZ RAMOS CAMPI</t>
+  </si>
+  <si>
+    <t>JUAN E VERDESOTO 509 Y ISAI</t>
+  </si>
+  <si>
+    <t>CARMEN DEL ROCIO CARPIO RAMOS</t>
+  </si>
+  <si>
+    <t>URBANIZACION VILLA VERONA 0Y Y CALLE PRINCIPAL URB VILLA VERONA CASA 2 PLANTAS 0994428857</t>
+  </si>
+  <si>
+    <t>CORNEJO RAMOS ROSARIO DEL PILAR</t>
+  </si>
+  <si>
+    <t>10 DE AGOSTO 0Y Y ABDON CALDERON</t>
+  </si>
+  <si>
+    <t>FLAVIO RAUL RAMOS MARTINEZ</t>
+  </si>
+  <si>
+    <t>JUAN X MARCOS 0 Y CALLE G CALLE G</t>
+  </si>
+  <si>
+    <t>FRANCISCO ANTONIO RAMOS VALDEZ</t>
+  </si>
+  <si>
+    <t>CDLA DEL CHOFER 0 Y CALLE TERCERA</t>
+  </si>
+  <si>
+    <t>GREGORIO HERNANDEZ RAMOS</t>
+  </si>
+  <si>
+    <t>CDLA XIMENA 5 0Y VILLA 15</t>
+  </si>
+  <si>
+    <t>GUINGLA RAMOS MIGUEL FELIPE</t>
+  </si>
+  <si>
+    <t>CDLA UNIVERSITARIA 0 A 1 CUADRA DE LA QUE ERA LA FUNDACION MANUELA ESPEJO</t>
+  </si>
+  <si>
+    <t>HECTOR OSWALDO ALVARIO RAMOS</t>
+  </si>
+  <si>
+    <t>CDLA LOS PERALES 0Y MZ D VILLA 17</t>
+  </si>
+  <si>
+    <t>JOEL STEEVEN MOLINA RAMOS</t>
+  </si>
+  <si>
+    <t>PARROQUIA EL SALTO 0 Y COOPERATIVA LAS BALSAS CALLE ELOY ALFARO CALLE ELOY ALFARO COOPERATIVA LAS BALSAS</t>
+  </si>
+  <si>
+    <t>LILIA ARNOLIS RAMOS CASTRO</t>
+  </si>
+  <si>
+    <t>ROCAFUERTE 0 Y 10 DE AGOSTO</t>
+  </si>
+  <si>
+    <t>MEJIA RAMOS GLORIA NOEMI</t>
+  </si>
+  <si>
+    <t>ROLDOS 0 Y AV. 5 DE JUNIO</t>
+  </si>
+  <si>
+    <t>MEJIA RAMOS HECTOR ARTURO</t>
+  </si>
+  <si>
+    <t>CDLA UNIVERSITARIA 0 Y CALLE PRINCIPAL</t>
+  </si>
+  <si>
+    <t>MEJIA RAMOS MARIANITA EMPERATRIZ</t>
+  </si>
+  <si>
+    <t>27 DE MAYO Y AVENIDA J MACHUCA</t>
+  </si>
+  <si>
+    <t>MEJIA RAMOS NANCY JUDITH</t>
+  </si>
+  <si>
+    <t>PEDRO CARBO 0 L Y CALLE S</t>
+  </si>
+  <si>
+    <t>OROZCO RAMOS AGUSTINA FATIMA</t>
+  </si>
+  <si>
+    <t>GARCIA MORENO 0Y Y CALLE H</t>
+  </si>
+  <si>
+    <t>OROZCO RAMOS SEGUNDO HITLER</t>
+  </si>
+  <si>
+    <t>CRISTO DEL CONSUELO 0Y Y PROLONGACION DE LA JUAN X MARCOS ENTRE CALLE K Y CALLE L</t>
+  </si>
+  <si>
+    <t>PEDRO ALEXANDER CARRASCO RAMOS</t>
+  </si>
+  <si>
+    <t>SEPTIMO CALLEJON 0Y Y OLMEDO MEJIA</t>
+  </si>
+  <si>
+    <t>RAMIREZ RAMOS ANGELA JOSEFINA</t>
+  </si>
+  <si>
+    <t>9 DE NOVIEMBRE 0 Y PRIMERA PEATONAL 9 DE NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>RAMOS AGUIRRE ARMANDO MARCELINO</t>
+  </si>
+  <si>
+    <t>ROLDOS 0 PRIMER CALLEJON SECTOR CENTRO PRIMER CALLEJON SECTOR CENTRO</t>
+  </si>
+  <si>
+    <t>RAMOS BERRUZ ELSY MARIA</t>
+  </si>
+  <si>
+    <t>5 DE JUNIO 1015 Y FLORES ESQUINA</t>
+  </si>
+  <si>
+    <t>RAMOS CASTRO JESSICA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>CIUDADELA 4 DE MAYO 0 Y CALLE SEGUNDA A</t>
+  </si>
+  <si>
+    <t>RAMOS CASTRO LILIA ARNOLIS</t>
+  </si>
+  <si>
+    <t>3ER CALLEJ FLORES Y OLMEDO</t>
+  </si>
+  <si>
+    <t>RAMOS CONTRERAS AVELINA RAMONA</t>
+  </si>
+  <si>
+    <t>9 DE NOVIEMBRE 0Y Y 2DA PEATONAL</t>
+  </si>
+  <si>
+    <t>RAMOS CONTRERAS DIANA CECIBELL</t>
+  </si>
+  <si>
+    <t>CALLE 5TA 133 Y AV. CLEMENTE BAQUERIZO</t>
+  </si>
+  <si>
+    <t>CALLE 5TA 0 L Y CALLE L</t>
+  </si>
+  <si>
+    <t>RAMOS FERNANDEZ JANET CONSUELO</t>
+  </si>
+  <si>
+    <t>CALLE 1ERA PEATONAL 0 Y ABDON CALDERON Y BOLIVAR ..</t>
+  </si>
+  <si>
+    <t>RAMOS GORIBA RICARDO ALLEN</t>
+  </si>
+  <si>
+    <t>CIUDADELA EL CHORRILLO MANZANA 2 VILLA 4</t>
+  </si>
+  <si>
+    <t>RAMOS HERRERA CARMEN MERCEDES</t>
+  </si>
+  <si>
+    <t>CALLE VEHICULAR 0C Y CALLE PRIMERA ATRAS DE LA UNIVERSIDAD CALLE VEHICULAR</t>
+  </si>
+  <si>
+    <t>RAMOS LOOR JUDITH ESMERALDA</t>
+  </si>
+  <si>
+    <t>CIUDADELA EL MAMEY</t>
+  </si>
+  <si>
+    <t>RAMOS MARTINES GLORIA MERCEDES</t>
+  </si>
+  <si>
+    <t>CIUDADELA LOS PERALESMZ A VILLA 3</t>
+  </si>
+  <si>
+    <t>RAMOS MOYA CLEVER MANUEL</t>
+  </si>
+  <si>
+    <t>CIUDADELA EL CHORRILLO</t>
+  </si>
+  <si>
+    <t>RAMOS PULECIO ENEDINA GRACIELA</t>
+  </si>
+  <si>
+    <t>5TA TRANSVERSAL Y 4TA TRANSVERSAL</t>
+  </si>
+  <si>
+    <t>RAMOS ZAPATA RAUL IGNACIO</t>
+  </si>
+  <si>
+    <t>VARGAS MACHUCA CAYYE B ENTRE C</t>
+  </si>
+  <si>
+    <t>RUGEL RAMOS JULIO BARTOLO</t>
+  </si>
+  <si>
+    <t>VARGAS MACHUCA 0 Y 9 DE NOVIEMBRE VARGAS MACHUCA</t>
+  </si>
+  <si>
+    <t>SEGUNDO ABRAHAM RAMOS GRANDA</t>
+  </si>
+  <si>
+    <t>CIUDADELA SAN PABLO 1 AVENIDA UNIVERSITARIA CALLE 3 Y 5 ENTRANDO POR ESCUELA RAUL WELEMVER</t>
+  </si>
+  <si>
+    <t>WELLINGTON UFREDO MORALES RAMOS</t>
+  </si>
+  <si>
+    <t>5 DE JUNIO 0 Y Y ENTRE BARREIRO Y RICAURTE</t>
   </si>
 </sst>
 </file>
@@ -1571,1136 +1622,1136 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22716444</v>
+        <v>52790906</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>22773604</v>
+        <v>52791306</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>22056265</v>
+        <v>52792265</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>22373037</v>
+        <v>52791846</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>22371478</v>
+        <v>52790982</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>22052838</v>
+        <v>52970115</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>22871575</v>
+        <v>52947259</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>23524253</v>
+        <v>52949227</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>22089004</v>
+        <v>52747127</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>22006598</v>
+        <v>52752232</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23516794</v>
+        <v>52771369</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>24510965</v>
+        <v>52004987</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>22868565</v>
+        <v>52770740</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22851483</v>
+        <v>52907308</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>22867968</v>
+        <v>52786655</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>22397049</v>
+        <v>52762735</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>23211440</v>
+        <v>52783108</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22951549</v>
+        <v>52781414</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22293701</v>
+        <v>52751993</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22503555</v>
+        <v>52784064</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22416236</v>
+        <v>52771455</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22612125</v>
+        <v>52775525</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22655062</v>
+        <v>52796372</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22663496</v>
+        <v>52752754</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22646090</v>
+        <v>52759137</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>293</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22235742</v>
+        <v>52752949</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>22566407</v>
+        <v>52716202</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22569672</v>
+        <v>52917427</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24528418</v>
+        <v>52917578</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>23401705</v>
+        <v>52953636</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>22425759</v>
+        <v>52956004</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22522592</v>
+        <v>52953336</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>23131046</v>
+        <v>52956047</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>23160069</v>
+      <c r="A35" t="s">
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>22424890</v>
+      <c r="A36" t="s">
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>22281550</v>
+      <c r="A37" t="s">
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>22293128</v>
+      <c r="A38" t="s">
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22414144</v>
+        <v>52905003</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>22658058</v>
+        <v>52749081</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>22322927</v>
+        <v>52749013</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>22835572</v>
+        <v>52749072</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22571631</v>
+        <v>42748424</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>22835197</v>
+        <v>53048099</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>326</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>327</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>22524332</v>
+        <v>52021896</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>330</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>24517193</v>
+        <v>52732961</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>22222136</v>
+        <v>52730375</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>22653173</v>
+        <v>52028379</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>22240827</v>
+        <v>52736261</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>22680228</v>
+        <v>52021943</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>22432728</v>
+        <v>52020718</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>23020620</v>
+        <v>52023678</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>22616165</v>
+        <v>52745424</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>23460729</v>
+        <v>52572279</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>23812553</v>
+        <v>52024901</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>23694115</v>
+        <v>52730953</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>22434865</v>
+        <v>52021598</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>354</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>22460348</v>
+        <v>52571876</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>356</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>22256788</v>
+        <v>52735375</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>359</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>22486021</v>
+        <v>52731429</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>23082805</v>
+        <v>52023249</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>22635786</v>
+        <v>52731010</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>24516619</v>
+        <v>52734709</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>23051195</v>
+        <v>52021967</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>22842181</v>
+        <v>52022202</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>370</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>22269796</v>
+        <v>52733962</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>373</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>24518954</v>
+        <v>52570107</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>374</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>22472966</v>
+        <v>52733615</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>22590075</v>
+        <v>52021930</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>379</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>22297074</v>
+        <v>52571669</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>380</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>22545353</v>
+        <v>52735094</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>380</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>23514700</v>
+        <v>52736412</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>384</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>23161129</v>
+        <v>52745366</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>385</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>22950565</v>
+        <v>52745559</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>388</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>22604896</v>
+        <v>52571458</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>389</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>22405575</v>
+        <v>52745301</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>391</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>392</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>22806690</v>
+        <v>52745418</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>393</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>394</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>23801746</v>
+        <v>52570434</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>395</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>396</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>22585763</v>
+        <v>52020201</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>23070586</v>
+        <v>52022944</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>399</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>400</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>22964531</v>
+        <v>52571660</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>23110226</v>
+        <v>52731118</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,13 +2759,13 @@
         <v>23112915</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,13 +2773,13 @@
         <v>22424285</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2736,13 +2787,13 @@
         <v>23517265</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,13 +2801,13 @@
         <v>23812883</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,13 +2815,13 @@
         <v>22404709</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2778,13 +2829,13 @@
         <v>23050242</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2792,13 +2843,13 @@
         <v>23041449</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2806,13 +2857,13 @@
         <v>23331950</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,13 +2871,13 @@
         <v>22664883</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2834,13 +2885,13 @@
         <v>22546377</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2848,13 +2899,13 @@
         <v>22545509</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,13 +2913,13 @@
         <v>22564247</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2876,13 +2927,13 @@
         <v>22564251</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2890,13 +2941,13 @@
         <v>22421690</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2904,13 +2955,13 @@
         <v>22453571</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,13 +2969,13 @@
         <v>22272420</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,13 +2983,13 @@
         <v>23401906</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2946,13 +2997,13 @@
         <v>22264377</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2960,13 +3011,13 @@
         <v>22248815</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2974,13 +3025,13 @@
         <v>22276632</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,13 +3039,13 @@
         <v>22322655</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,13 +3053,13 @@
         <v>22663814</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3016,13 +3067,13 @@
         <v>22469669</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3030,13 +3081,13 @@
         <v>23008259</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3044,13 +3095,13 @@
         <v>22284606</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3058,13 +3109,13 @@
         <v>23408424</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,13 +3123,13 @@
         <v>22436372</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3086,13 +3137,13 @@
         <v>22962018</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,13 +3151,13 @@
         <v>23132400</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3114,13 +3165,13 @@
         <v>22425552</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3128,13 +3179,13 @@
         <v>22427562</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,13 +3193,13 @@
         <v>23411123</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,13 +3207,13 @@
         <v>22251757</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,13 +3221,13 @@
         <v>22561954</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3184,13 +3235,13 @@
         <v>22592301</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3198,13 +3249,13 @@
         <v>22845831</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,13 +3263,13 @@
         <v>22958772</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,13 +3277,13 @@
         <v>24759965</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3240,13 +3291,13 @@
         <v>22952949</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,13 +3305,13 @@
         <v>22520120</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,13 +3319,13 @@
         <v>23035247</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,13 +3333,13 @@
         <v>22957210</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,13 +3347,13 @@
         <v>22526617</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3310,13 +3361,13 @@
         <v>22609232</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,13 +3375,13 @@
         <v>23120096</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,13 +3389,13 @@
         <v>23203795</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,13 +3403,13 @@
         <v>24760754</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,13 +3417,13 @@
         <v>22580349</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3380,13 +3431,13 @@
         <v>22430679</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3394,13 +3445,13 @@
         <v>22526742</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
       <c r="C132" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,13 +3459,13 @@
         <v>23203049</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="C133" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,13 +3473,13 @@
         <v>23385616</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3436,13 +3487,13 @@
         <v>22627345</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>115</v>
       </c>
       <c r="C135" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,13 +3501,13 @@
         <v>23661219</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,13 +3515,13 @@
         <v>23025242</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3478,13 +3529,13 @@
         <v>23036472</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="C138" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,13 +3543,13 @@
         <v>22587023</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="C139" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,13 +3557,13 @@
         <v>22445834</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="C140" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3520,13 +3571,13 @@
         <v>22449421</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,13 +3585,13 @@
         <v>22801559</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,13 +3599,13 @@
         <v>23008708</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,13 +3613,13 @@
         <v>23042628</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="C144" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3576,13 +3627,13 @@
         <v>22436278</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,13 +3641,13 @@
         <v>22857588</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>136</v>
       </c>
       <c r="C146" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,13 +3655,13 @@
         <v>22841755</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="C147" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3618,13 +3669,13 @@
         <v>23407088</v>
       </c>
       <c r="B148" t="s">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="C148" t="s">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,13 +3683,13 @@
         <v>22235946</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="C149" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3646,13 +3697,13 @@
         <v>22494336</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,13 +3711,13 @@
         <v>22914121</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="C151" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3674,13 +3725,13 @@
         <v>24536269</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,13 +3739,13 @@
         <v>22168186</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D153" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,13 +3753,13 @@
         <v>22355866</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="C154" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3716,13 +3767,13 @@
         <v>23514357</v>
       </c>
       <c r="B155" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3730,13 +3781,13 @@
         <v>22353288</v>
       </c>
       <c r="B156" t="s">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3744,13 +3795,13 @@
         <v>22149216</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="D157" t="s">
-        <v>309</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3758,13 +3809,13 @@
         <v>22780257</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="D158" t="s">
-        <v>312</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3828,13 +3879,13 @@
         <v>22161086</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>314</v>
+        <v>164</v>
       </c>
       <c r="D163" t="s">
-        <v>315</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3842,13 +3893,13 @@
         <v>22316617</v>
       </c>
       <c r="B164" t="s">
-        <v>316</v>
+        <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>318</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,13 +4047,13 @@
         <v>22033651</v>
       </c>
       <c r="B175" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="C175" t="s">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4010,13 +4061,13 @@
         <v>22031953</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="C176" t="s">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4024,13 +4075,13 @@
         <v>23746468</v>
       </c>
       <c r="B177" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="C177" t="s">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4038,13 +4089,13 @@
         <v>22763044</v>
       </c>
       <c r="B178" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4052,13 +4103,13 @@
         <v>23751563</v>
       </c>
       <c r="B179" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4066,13 +4117,13 @@
         <v>22757740</v>
       </c>
       <c r="B180" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4080,13 +4131,13 @@
         <v>22748859</v>
       </c>
       <c r="B181" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4094,13 +4145,13 @@
         <v>22757882</v>
       </c>
       <c r="B182" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4108,13 +4159,13 @@
         <v>22757823</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4122,13 +4173,13 @@
         <v>23373717</v>
       </c>
       <c r="B184" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4136,13 +4187,13 @@
         <v>22164489</v>
       </c>
       <c r="B185" t="s">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="D185" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,13 +4201,13 @@
         <v>22120094</v>
       </c>
       <c r="B186" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
-        <v>342</v>
+        <v>192</v>
       </c>
       <c r="D186" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4164,13 +4215,13 @@
         <v>23566491</v>
       </c>
       <c r="B187" t="s">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="C187" t="s">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="D187" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4178,13 +4229,13 @@
         <v>22041051</v>
       </c>
       <c r="B188" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4192,13 +4243,13 @@
         <v>23804239</v>
       </c>
       <c r="B189" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
       <c r="C189" t="s">
-        <v>347</v>
+        <v>197</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4206,13 +4257,13 @@
         <v>22893870</v>
       </c>
       <c r="B190" t="s">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="C190" t="s">
-        <v>349</v>
+        <v>199</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,13 +4271,13 @@
         <v>22190938</v>
       </c>
       <c r="B191" t="s">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C191" t="s">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,13 +4285,13 @@
         <v>22078067</v>
       </c>
       <c r="B192" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="C192" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4248,13 +4299,13 @@
         <v>22345732</v>
       </c>
       <c r="B193" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4262,13 +4313,13 @@
         <v>22798513</v>
       </c>
       <c r="B194" t="s">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="C194" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="D194" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4276,13 +4327,13 @@
         <v>23187037</v>
       </c>
       <c r="B195" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="D195" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,13 +4341,13 @@
         <v>22345648</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="C196" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4304,13 +4355,13 @@
         <v>24508041</v>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="C197" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="D197" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,13 +4369,13 @@
         <v>22348763</v>
       </c>
       <c r="B198" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="C198" t="s">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4332,13 +4383,13 @@
         <v>22111743</v>
       </c>
       <c r="B199" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="C199" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="D199" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4346,13 +4397,13 @@
         <v>22362698</v>
       </c>
       <c r="B200" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="C200" t="s">
-        <v>369</v>
+        <v>219</v>
       </c>
       <c r="D200" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4360,13 +4411,13 @@
         <v>22110608</v>
       </c>
       <c r="B201" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C201" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="D201" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4374,13 +4425,13 @@
         <v>22829923</v>
       </c>
       <c r="B202" t="s">
-        <v>371</v>
+        <v>221</v>
       </c>
       <c r="C202" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4388,13 +4439,13 @@
         <v>22032057</v>
       </c>
       <c r="B203" t="s">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="C203" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4402,13 +4453,13 @@
         <v>22016056</v>
       </c>
       <c r="B204" t="s">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="C204" t="s">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4416,13 +4467,13 @@
         <v>22828475</v>
       </c>
       <c r="B205" t="s">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="C205" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4430,13 +4481,13 @@
         <v>22065157</v>
       </c>
       <c r="B206" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C206" t="s">
-        <v>379</v>
+        <v>229</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4444,13 +4495,13 @@
         <v>22065975</v>
       </c>
       <c r="B207" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C207" t="s">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,13 +4509,13 @@
         <v>23495216</v>
       </c>
       <c r="B208" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="C208" t="s">
-        <v>382</v>
+        <v>232</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,13 +4523,13 @@
         <v>23471652</v>
       </c>
       <c r="B209" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="C209" t="s">
-        <v>383</v>
+        <v>233</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,13 +4537,13 @@
         <v>22825319</v>
       </c>
       <c r="B210" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="C210" t="s">
-        <v>385</v>
+        <v>235</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,13 +4551,13 @@
         <v>23616236</v>
       </c>
       <c r="B211" t="s">
-        <v>386</v>
+        <v>236</v>
       </c>
       <c r="C211" t="s">
-        <v>387</v>
+        <v>237</v>
       </c>
       <c r="D211" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
